--- a/xlsx/芬蘭_intext.xlsx
+++ b/xlsx/芬蘭_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="932">
   <si>
     <t>芬蘭</t>
   </si>
@@ -29,7 +29,7 @@
     <t>芬蘭區</t>
   </si>
   <si>
-    <t>政策_政策_政治_芬蘭</t>
+    <t>体育运动_体育运动_拳击_芬蘭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E8%AA%9E</t>
@@ -1742,6 +1742,12 @@
     <t>爱沙尼亚</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E8%80%B6%E7%89%B9%E6%B5%B7%E6%A2%85%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>派耶特海梅区</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Europe</t>
   </si>
   <si>
@@ -1772,10 +1778,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -1868,10 +1898,16 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1904,10 +1940,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -2000,18 +2036,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -2036,10 +2072,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -2090,16 +2126,22 @@
     <t>馬爾他騎士團</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
     <t>土耳其</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -2108,10 +2150,10 @@
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -3117,7 +3159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I483"/>
+  <dimension ref="A1:I490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3374,7 +3416,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -5404,7 +5446,7 @@
         <v>152</v>
       </c>
       <c r="G79" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -8188,7 +8230,7 @@
         <v>330</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -10334,7 +10376,7 @@
         <v>470</v>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -11923,10 +11965,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>293</v>
+        <v>575</v>
       </c>
       <c r="F304" t="s">
-        <v>294</v>
+        <v>576</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11952,10 +11994,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="F305" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11981,13 +12023,13 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>575</v>
+        <v>271</v>
       </c>
       <c r="F306" t="s">
-        <v>576</v>
+        <v>272</v>
       </c>
       <c r="G306" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -12016,7 +12058,7 @@
         <v>578</v>
       </c>
       <c r="G307" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -12045,7 +12087,7 @@
         <v>580</v>
       </c>
       <c r="G308" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -12074,7 +12116,7 @@
         <v>582</v>
       </c>
       <c r="G309" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -12161,7 +12203,7 @@
         <v>588</v>
       </c>
       <c r="G312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -12190,7 +12232,7 @@
         <v>590</v>
       </c>
       <c r="G313" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -12219,7 +12261,7 @@
         <v>592</v>
       </c>
       <c r="G314" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -12248,7 +12290,7 @@
         <v>594</v>
       </c>
       <c r="G315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -12277,7 +12319,7 @@
         <v>596</v>
       </c>
       <c r="G316" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -12306,7 +12348,7 @@
         <v>598</v>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -12335,7 +12377,7 @@
         <v>600</v>
       </c>
       <c r="G318" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -12364,7 +12406,7 @@
         <v>602</v>
       </c>
       <c r="G319" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -12393,7 +12435,7 @@
         <v>604</v>
       </c>
       <c r="G320" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -12422,7 +12464,7 @@
         <v>606</v>
       </c>
       <c r="G321" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -12451,7 +12493,7 @@
         <v>608</v>
       </c>
       <c r="G322" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -12480,7 +12522,7 @@
         <v>610</v>
       </c>
       <c r="G323" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -12509,7 +12551,7 @@
         <v>612</v>
       </c>
       <c r="G324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -12538,7 +12580,7 @@
         <v>614</v>
       </c>
       <c r="G325" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -12567,7 +12609,7 @@
         <v>616</v>
       </c>
       <c r="G326" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -12596,7 +12638,7 @@
         <v>618</v>
       </c>
       <c r="G327" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -12625,7 +12667,7 @@
         <v>620</v>
       </c>
       <c r="G328" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -12654,7 +12696,7 @@
         <v>622</v>
       </c>
       <c r="G329" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -12683,7 +12725,7 @@
         <v>624</v>
       </c>
       <c r="G330" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -12741,7 +12783,7 @@
         <v>628</v>
       </c>
       <c r="G332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -12799,7 +12841,7 @@
         <v>632</v>
       </c>
       <c r="G334" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -12828,7 +12870,7 @@
         <v>634</v>
       </c>
       <c r="G335" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -12857,7 +12899,7 @@
         <v>636</v>
       </c>
       <c r="G336" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -12915,7 +12957,7 @@
         <v>640</v>
       </c>
       <c r="G338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -12944,7 +12986,7 @@
         <v>642</v>
       </c>
       <c r="G339" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -12973,7 +13015,7 @@
         <v>644</v>
       </c>
       <c r="G340" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -13002,7 +13044,7 @@
         <v>646</v>
       </c>
       <c r="G341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -13060,7 +13102,7 @@
         <v>650</v>
       </c>
       <c r="G343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -13089,7 +13131,7 @@
         <v>652</v>
       </c>
       <c r="G344" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -13118,7 +13160,7 @@
         <v>654</v>
       </c>
       <c r="G345" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -13147,7 +13189,7 @@
         <v>656</v>
       </c>
       <c r="G346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -13176,7 +13218,7 @@
         <v>658</v>
       </c>
       <c r="G347" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -13205,7 +13247,7 @@
         <v>660</v>
       </c>
       <c r="G348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -13234,7 +13276,7 @@
         <v>662</v>
       </c>
       <c r="G349" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -13263,7 +13305,7 @@
         <v>664</v>
       </c>
       <c r="G350" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -13321,7 +13363,7 @@
         <v>668</v>
       </c>
       <c r="G352" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -13350,7 +13392,7 @@
         <v>670</v>
       </c>
       <c r="G353" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -13408,7 +13450,7 @@
         <v>674</v>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13466,7 +13508,7 @@
         <v>678</v>
       </c>
       <c r="G357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -13495,7 +13537,7 @@
         <v>680</v>
       </c>
       <c r="G358" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -13524,7 +13566,7 @@
         <v>682</v>
       </c>
       <c r="G359" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -13553,7 +13595,7 @@
         <v>684</v>
       </c>
       <c r="G360" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H360" t="s">
         <v>4</v>
@@ -13669,7 +13711,7 @@
         <v>692</v>
       </c>
       <c r="G364" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -13872,7 +13914,7 @@
         <v>706</v>
       </c>
       <c r="G371" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -14017,7 +14059,7 @@
         <v>716</v>
       </c>
       <c r="G376" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H376" t="s">
         <v>4</v>
@@ -14040,10 +14082,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>357</v>
+        <v>717</v>
       </c>
       <c r="F377" t="s">
-        <v>358</v>
+        <v>718</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14069,10 +14111,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F378" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14098,13 +14140,13 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F379" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G379" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -14127,13 +14169,13 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F380" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -14156,13 +14198,13 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F381" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G381" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H381" t="s">
         <v>4</v>
@@ -14185,13 +14227,13 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F382" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G382" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H382" t="s">
         <v>4</v>
@@ -14214,13 +14256,13 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F383" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G383" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H383" t="s">
         <v>4</v>
@@ -14243,13 +14285,13 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>729</v>
+        <v>357</v>
       </c>
       <c r="F384" t="s">
-        <v>730</v>
+        <v>358</v>
       </c>
       <c r="G384" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
@@ -14278,7 +14320,7 @@
         <v>732</v>
       </c>
       <c r="G385" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H385" t="s">
         <v>4</v>
@@ -14330,13 +14372,13 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>583</v>
+        <v>735</v>
       </c>
       <c r="F387" t="s">
-        <v>584</v>
+        <v>736</v>
       </c>
       <c r="G387" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
@@ -14359,10 +14401,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F388" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="G388" t="n">
         <v>3</v>
@@ -14388,13 +14430,13 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F389" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G389" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -14417,13 +14459,13 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F390" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G390" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -14446,13 +14488,13 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F391" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="G391" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -14475,13 +14517,13 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F392" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="G392" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -14504,13 +14546,13 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F393" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G393" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -14533,13 +14575,13 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>747</v>
+        <v>585</v>
       </c>
       <c r="F394" t="s">
-        <v>748</v>
+        <v>586</v>
       </c>
       <c r="G394" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -14568,7 +14610,7 @@
         <v>750</v>
       </c>
       <c r="G395" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H395" t="s">
         <v>4</v>
@@ -14591,13 +14633,13 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>639</v>
+        <v>751</v>
       </c>
       <c r="F396" t="s">
-        <v>640</v>
+        <v>752</v>
       </c>
       <c r="G396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -14620,10 +14662,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>637</v>
+        <v>753</v>
       </c>
       <c r="F397" t="s">
-        <v>638</v>
+        <v>754</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14649,10 +14691,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="F398" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14678,10 +14720,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="F399" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14707,10 +14749,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="F400" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14736,13 +14778,13 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="F401" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="G401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
@@ -14765,10 +14807,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="F402" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14794,13 +14836,13 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>761</v>
+        <v>651</v>
       </c>
       <c r="F403" t="s">
-        <v>762</v>
+        <v>652</v>
       </c>
       <c r="G403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H403" t="s">
         <v>4</v>
@@ -14823,10 +14865,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>763</v>
+        <v>649</v>
       </c>
       <c r="F404" t="s">
-        <v>764</v>
+        <v>650</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14858,7 +14900,7 @@
         <v>766</v>
       </c>
       <c r="G405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H405" t="s">
         <v>4</v>
@@ -14887,7 +14929,7 @@
         <v>768</v>
       </c>
       <c r="G406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H406" t="s">
         <v>4</v>
@@ -14974,7 +15016,7 @@
         <v>774</v>
       </c>
       <c r="G409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H409" t="s">
         <v>4</v>
@@ -15061,7 +15103,7 @@
         <v>780</v>
       </c>
       <c r="G412" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H412" t="s">
         <v>4</v>
@@ -15090,7 +15132,7 @@
         <v>782</v>
       </c>
       <c r="G413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H413" t="s">
         <v>4</v>
@@ -15177,7 +15219,7 @@
         <v>788</v>
       </c>
       <c r="G416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H416" t="s">
         <v>4</v>
@@ -15293,7 +15335,7 @@
         <v>796</v>
       </c>
       <c r="G420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H420" t="s">
         <v>4</v>
@@ -15322,7 +15364,7 @@
         <v>798</v>
       </c>
       <c r="G421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H421" t="s">
         <v>4</v>
@@ -15467,7 +15509,7 @@
         <v>808</v>
       </c>
       <c r="G426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -15496,7 +15538,7 @@
         <v>810</v>
       </c>
       <c r="G427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -15525,7 +15567,7 @@
         <v>812</v>
       </c>
       <c r="G428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
@@ -15670,7 +15712,7 @@
         <v>822</v>
       </c>
       <c r="G433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H433" t="s">
         <v>4</v>
@@ -15780,10 +15822,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>365</v>
+        <v>829</v>
       </c>
       <c r="F437" t="s">
-        <v>366</v>
+        <v>830</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15809,10 +15851,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="F438" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15838,10 +15880,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F439" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15867,13 +15909,13 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F440" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H440" t="s">
         <v>4</v>
@@ -15896,10 +15938,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F441" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15925,10 +15967,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="F442" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15954,10 +15996,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="F443" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15983,10 +16025,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>841</v>
+        <v>365</v>
       </c>
       <c r="F444" t="s">
-        <v>842</v>
+        <v>366</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16012,10 +16054,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F445" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16041,10 +16083,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F446" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16070,13 +16112,13 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="F447" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H447" t="s">
         <v>4</v>
@@ -16099,10 +16141,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F448" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16128,10 +16170,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F449" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16157,10 +16199,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F450" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16186,10 +16228,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F451" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16917,7 +16959,7 @@
         <v>904</v>
       </c>
       <c r="G476" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H476" t="s">
         <v>4</v>
@@ -17091,7 +17133,7 @@
         <v>916</v>
       </c>
       <c r="G482" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H482" t="s">
         <v>4</v>
@@ -17114,18 +17156,221 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F483" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G483" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H483" t="s">
         <v>4</v>
       </c>
       <c r="I483" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>0</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1</v>
+      </c>
+      <c r="D484" t="n">
+        <v>483</v>
+      </c>
+      <c r="E484" t="s">
+        <v>919</v>
+      </c>
+      <c r="F484" t="s">
+        <v>920</v>
+      </c>
+      <c r="G484" t="n">
+        <v>1</v>
+      </c>
+      <c r="H484" t="s">
+        <v>4</v>
+      </c>
+      <c r="I484" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>0</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1</v>
+      </c>
+      <c r="D485" t="n">
+        <v>484</v>
+      </c>
+      <c r="E485" t="s">
+        <v>921</v>
+      </c>
+      <c r="F485" t="s">
+        <v>922</v>
+      </c>
+      <c r="G485" t="n">
+        <v>1</v>
+      </c>
+      <c r="H485" t="s">
+        <v>4</v>
+      </c>
+      <c r="I485" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>0</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1</v>
+      </c>
+      <c r="D486" t="n">
+        <v>485</v>
+      </c>
+      <c r="E486" t="s">
+        <v>923</v>
+      </c>
+      <c r="F486" t="s">
+        <v>924</v>
+      </c>
+      <c r="G486" t="n">
+        <v>1</v>
+      </c>
+      <c r="H486" t="s">
+        <v>4</v>
+      </c>
+      <c r="I486" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>0</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1</v>
+      </c>
+      <c r="D487" t="n">
+        <v>486</v>
+      </c>
+      <c r="E487" t="s">
+        <v>925</v>
+      </c>
+      <c r="F487" t="s">
+        <v>926</v>
+      </c>
+      <c r="G487" t="n">
+        <v>1</v>
+      </c>
+      <c r="H487" t="s">
+        <v>4</v>
+      </c>
+      <c r="I487" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>0</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1</v>
+      </c>
+      <c r="D488" t="n">
+        <v>487</v>
+      </c>
+      <c r="E488" t="s">
+        <v>927</v>
+      </c>
+      <c r="F488" t="s">
+        <v>928</v>
+      </c>
+      <c r="G488" t="n">
+        <v>1</v>
+      </c>
+      <c r="H488" t="s">
+        <v>4</v>
+      </c>
+      <c r="I488" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>0</v>
+      </c>
+      <c r="C489" t="s">
+        <v>1</v>
+      </c>
+      <c r="D489" t="n">
+        <v>488</v>
+      </c>
+      <c r="E489" t="s">
+        <v>929</v>
+      </c>
+      <c r="F489" t="s">
+        <v>930</v>
+      </c>
+      <c r="G489" t="n">
+        <v>17</v>
+      </c>
+      <c r="H489" t="s">
+        <v>4</v>
+      </c>
+      <c r="I489" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>0</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1</v>
+      </c>
+      <c r="D490" t="n">
+        <v>489</v>
+      </c>
+      <c r="E490" t="s">
+        <v>929</v>
+      </c>
+      <c r="F490" t="s">
+        <v>931</v>
+      </c>
+      <c r="G490" t="n">
+        <v>1</v>
+      </c>
+      <c r="H490" t="s">
+        <v>4</v>
+      </c>
+      <c r="I490" t="n">
         <v>3</v>
       </c>
     </row>
